--- a/K9HZ_KI3P_Reverse_Voltage_Protection/K9HZ_KI3P_20A_Reverse_Voltage_Protection_Kit/Reverse_voltage_protection_20A_BOM.xlsx
+++ b/K9HZ_KI3P_Reverse_Voltage_Protection/K9HZ_KI3P_20A_Reverse_Voltage_Protection_Kit/Reverse_voltage_protection_20A_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\K9HZ\K9HZ_Ki3P_Reverse _Voltage_Protection_Kits\K9HZ_KI3P_20A_Reverse_Voltage_Protection_Kit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_KI3P_Reverse_Voltage_Protection\K9HZ_KI3P_20A_Reverse_Voltage_Protection_Kit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C98F07-CF69-4EFE-925A-6D998F77EE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E66067-BCD2-466C-9975-54939625342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EDED857D-3C86-4F60-A9F1-02B0562F0948}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Qty</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>R1,R2,R3</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Green LED 5.0mm</t>
   </si>
   <si>
-    <t>10V 0.5W Leaded Zener Diode</t>
-  </si>
-  <si>
     <t>1N4007 1000V 1A Leaded Diode</t>
   </si>
   <si>
@@ -92,10 +83,13 @@
     <t>Custom Circuit Board</t>
   </si>
   <si>
-    <t>1x2 IDC Male Pins - 2.53mm pitch</t>
-  </si>
-  <si>
     <t>SCREW TERMINAL BLOCK 2 POSITIONS 5MM 250V 16A</t>
+  </si>
+  <si>
+    <t>1N4740 10V 0.5W Leaded Zener Diode</t>
+  </si>
+  <si>
+    <t>R1, R2, R3</t>
   </si>
 </sst>
 </file>
@@ -962,15 +956,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD02558-313C-4E06-BB6D-69026BD3D1AD}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="44.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -979,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -993,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1004,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1015,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1026,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1034,10 +1029,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1048,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1056,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1067,24 +1062,14 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="217" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>